--- a/editable/Screening/Fingertapping/Psychopy_TrialTypes.xlsx
+++ b/editable/Screening/Fingertapping/Psychopy_TrialTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcas\OneDrive\Documents\Experiments\Fingertapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CulhmanLab\Documents\GitHub\Zoom_ToM\editable\Screening\Fingertapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1774B0FD-88DA-4101-931F-96415D513A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D209DA5-871E-461F-8867-526E1A54F46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="675" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="3240" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>condition</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>marker</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>Audio\\left.wav</t>
   </si>
   <si>
     <t>Audio\\Stop.wav</t>
@@ -413,10 +407,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -446,48 +440,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
